--- a/public/exported_data.xlsx
+++ b/public/exported_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>作成日</t>
   </si>
@@ -32,79 +32,19 @@
     <t>プラン特徴（本文）</t>
   </si>
   <si>
-    <t>2023-03-30 00:35:21</t>
-  </si>
-  <si>
-    <t>NO1プランタイトルーーーーーーーー</t>
-  </si>
-  <si>
-    <t>プラン説明ーーーーーーーーーーーーーｄｄｄｄｄ</t>
-  </si>
-  <si>
-    <t>No1プラン特徴タイトルーーーーーーーーー</t>
-  </si>
-  <si>
-    <t>ｆｇｓｆｓｇｆｓｇ</t>
-  </si>
-  <si>
-    <t>2023-03-30 16:16:14</t>
-  </si>
-  <si>
-    <t>No３タイトル</t>
-  </si>
-  <si>
-    <t>Noだｄふぁだｆｄあｄふぁｄふぁ</t>
-  </si>
-  <si>
-    <t>プラン特徴だｄふぁｄふぁｄふぁ</t>
-  </si>
-  <si>
-    <t>ｄふぁｌｄふぁだあふぁｄふぁふぁ</t>
-  </si>
-  <si>
-    <t>2023-03-30 16:16:48</t>
-  </si>
-  <si>
-    <t>NO2プランタイトルだｆｊｄぁｊｄふぁｌｊ</t>
-  </si>
-  <si>
-    <t>プラン説明あｋｄｄｊふぁｄｊｌふぁｊｄふぁ</t>
-  </si>
-  <si>
-    <t>プラン特徴かかｄふぁｄふぁｄふぁ</t>
-  </si>
-  <si>
-    <t>プラン特徴ｋｄふぁｄふぁｊｄふぁ</t>
-  </si>
-  <si>
-    <t>2023-03-30 16:17:18</t>
-  </si>
-  <si>
-    <t>NO4プランタイトルｋｄｊふぉあｊｄふぁｊｄふぁ</t>
-  </si>
-  <si>
-    <t>プラン背s津名ｄふぁｄｋふぁｌｄｊふぁ</t>
-  </si>
-  <si>
-    <t>プラン特徴かｊｄｆぁｊｄｌふぁｊだ</t>
-  </si>
-  <si>
-    <t>プラン特徴かｋｄｆｊヵｊｄｆぁｊｄふぁ</t>
-  </si>
-  <si>
-    <t>2023-04-01 09:35:38</t>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t>プラン説明を書いていきますね</t>
-  </si>
-  <si>
-    <t>プラン特徴のタイトルを書いて行きますね</t>
-  </si>
-  <si>
-    <t>プラン特徴を記載していきますｙ</t>
+    <t>2023-04-08 17:10:51</t>
+  </si>
+  <si>
+    <t>プランタイトル</t>
+  </si>
+  <si>
+    <t>テストｄふぁだｆ</t>
+  </si>
+  <si>
+    <t>ｍふぁｌｋｄｊふぁｌｄ</t>
+  </si>
+  <si>
+    <t>ｊｄｆｋぁｊｄぁｆｋｊ</t>
   </si>
 </sst>
 </file>
@@ -444,7 +384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,74 +424,6 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/exported_data.xlsx
+++ b/public/exported_data.xlsx
@@ -32,19 +32,19 @@
     <t>プラン特徴（本文）</t>
   </si>
   <si>
-    <t>2023-04-08 17:10:51</t>
-  </si>
-  <si>
-    <t>プランタイトル</t>
-  </si>
-  <si>
-    <t>テストｄふぁだｆ</t>
-  </si>
-  <si>
-    <t>ｍふぁｌｋｄｊふぁｌｄ</t>
-  </si>
-  <si>
-    <t>ｊｄｆｋぁｊｄぁｆｋｊ</t>
+    <t>2023-04-08 16:04:19</t>
+  </si>
+  <si>
+    <t>ふぁＤふぁだＦ</t>
+  </si>
+  <si>
+    <t>ＤふぁだＦ</t>
+  </si>
+  <si>
+    <t>あＤふぁＤふぁ</t>
+  </si>
+  <si>
+    <t>だＳふぁＤふぁ</t>
   </si>
 </sst>
 </file>
